--- a/Europese_Hoofdsteden_1999_met_IDs.xlsx
+++ b/Europese_Hoofdsteden_1999_met_IDs.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/einte/Library/CloudStorage/GoogleDrive-eintekarstdijk@gmail.com/My Drive/Einte/Boys/Europa_Kaart/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99BFCAC-461C-8248-99FF-6DC3FC86F723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="25460" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="191">
   <si>
     <t>Land</t>
   </si>
@@ -584,13 +590,16 @@
   </si>
   <si>
     <t>Start in Londen: chaos op Schiphol, hostel 'Golden Shower', potloodventer in park, slagschip op Thames, Rad van WEL v.s. NIET.</t>
+  </si>
+  <si>
+    <t>Feest feest feest!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,13 +675,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -710,7 +727,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -744,6 +761,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -778,9 +796,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -953,14 +972,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="67.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="115.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,7 +1018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1003,10 +1029,10 @@
         <v>92</v>
       </c>
       <c r="E2">
-        <v>41.3275</v>
+        <v>41.327500000000001</v>
       </c>
       <c r="F2">
-        <v>19.8189</v>
+        <v>19.818899999999999</v>
       </c>
       <c r="G2" t="s">
         <v>93</v>
@@ -1014,8 +1040,11 @@
       <c r="H2" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1023,10 +1052,10 @@
         <v>54</v>
       </c>
       <c r="E3">
-        <v>42.5078</v>
+        <v>42.507800000000003</v>
       </c>
       <c r="F3">
-        <v>1.5211</v>
+        <v>1.5210999999999999</v>
       </c>
       <c r="G3" t="s">
         <v>94</v>
@@ -1035,7 +1064,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1046,10 +1075,10 @@
         <v>92</v>
       </c>
       <c r="E4">
-        <v>50.8503</v>
+        <v>50.850299999999997</v>
       </c>
       <c r="F4">
-        <v>4.3517</v>
+        <v>4.3517000000000001</v>
       </c>
       <c r="G4" t="s">
         <v>95</v>
@@ -1058,7 +1087,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1066,7 +1095,7 @@
         <v>56</v>
       </c>
       <c r="E5">
-        <v>43.8563</v>
+        <v>43.856299999999997</v>
       </c>
       <c r="F5">
         <v>18.4131</v>
@@ -1078,7 +1107,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1086,10 +1115,10 @@
         <v>57</v>
       </c>
       <c r="E6">
-        <v>42.6977</v>
+        <v>42.697699999999998</v>
       </c>
       <c r="F6">
-        <v>23.3219</v>
+        <v>23.321899999999999</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -1098,7 +1127,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1109,10 +1138,10 @@
         <v>92</v>
       </c>
       <c r="E7">
-        <v>55.6761</v>
+        <v>55.676099999999998</v>
       </c>
       <c r="F7">
-        <v>12.5683</v>
+        <v>12.568300000000001</v>
       </c>
       <c r="G7" t="s">
         <v>98</v>
@@ -1121,7 +1150,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1135,7 +1164,7 @@
         <v>52.52</v>
       </c>
       <c r="F8">
-        <v>13.405</v>
+        <v>13.404999999999999</v>
       </c>
       <c r="G8" t="s">
         <v>99</v>
@@ -1144,7 +1173,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1155,10 +1184,10 @@
         <v>92</v>
       </c>
       <c r="E9">
-        <v>59.437</v>
+        <v>59.436999999999998</v>
       </c>
       <c r="F9">
-        <v>24.7536</v>
+        <v>24.753599999999999</v>
       </c>
       <c r="G9" t="s">
         <v>100</v>
@@ -1167,7 +1196,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1178,10 +1207,10 @@
         <v>92</v>
       </c>
       <c r="E10">
-        <v>60.1699</v>
+        <v>60.169899999999998</v>
       </c>
       <c r="F10">
-        <v>24.9384</v>
+        <v>24.938400000000001</v>
       </c>
       <c r="G10" t="s">
         <v>101</v>
@@ -1190,7 +1219,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1204,7 +1233,7 @@
         <v>48.8566</v>
       </c>
       <c r="F11">
-        <v>2.3522</v>
+        <v>2.3521999999999998</v>
       </c>
       <c r="G11" t="s">
         <v>102</v>
@@ -1213,7 +1242,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1224,10 +1253,10 @@
         <v>92</v>
       </c>
       <c r="E12">
-        <v>37.9838</v>
+        <v>37.983800000000002</v>
       </c>
       <c r="F12">
-        <v>23.7275</v>
+        <v>23.727499999999999</v>
       </c>
       <c r="G12" t="s">
         <v>103</v>
@@ -1239,7 +1268,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1250,10 +1279,10 @@
         <v>92</v>
       </c>
       <c r="E13">
-        <v>47.4979</v>
+        <v>47.497900000000001</v>
       </c>
       <c r="F13">
-        <v>19.0402</v>
+        <v>19.040199999999999</v>
       </c>
       <c r="G13" t="s">
         <v>104</v>
@@ -1265,7 +1294,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1276,10 +1305,10 @@
         <v>92</v>
       </c>
       <c r="E14">
-        <v>53.3331</v>
+        <v>53.333100000000002</v>
       </c>
       <c r="F14">
-        <v>-6.2489</v>
+        <v>-6.2488999999999999</v>
       </c>
       <c r="G14" t="s">
         <v>105</v>
@@ -1288,7 +1317,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1299,10 +1328,10 @@
         <v>92</v>
       </c>
       <c r="E15">
-        <v>64.13549999999999</v>
+        <v>64.135499999999993</v>
       </c>
       <c r="F15">
-        <v>-21.8954</v>
+        <v>-21.895399999999999</v>
       </c>
       <c r="G15" t="s">
         <v>106</v>
@@ -1311,7 +1340,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1322,7 +1351,7 @@
         <v>92</v>
       </c>
       <c r="E16">
-        <v>41.9028</v>
+        <v>41.902799999999999</v>
       </c>
       <c r="F16">
         <v>12.4964</v>
@@ -1337,7 +1366,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1348,10 +1377,10 @@
         <v>92</v>
       </c>
       <c r="E17">
-        <v>44.8176</v>
+        <v>44.817599999999999</v>
       </c>
       <c r="F17">
-        <v>20.4569</v>
+        <v>20.456900000000001</v>
       </c>
       <c r="G17" t="s">
         <v>108</v>
@@ -1360,7 +1389,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1368,7 +1397,7 @@
         <v>69</v>
       </c>
       <c r="E18">
-        <v>45.815</v>
+        <v>45.814999999999998</v>
       </c>
       <c r="F18">
         <v>15.9819</v>
@@ -1380,7 +1409,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1391,7 +1420,7 @@
         <v>92</v>
       </c>
       <c r="E19">
-        <v>56.9496</v>
+        <v>56.949599999999997</v>
       </c>
       <c r="F19">
         <v>24.1052</v>
@@ -1403,7 +1432,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1414,10 +1443,10 @@
         <v>92</v>
       </c>
       <c r="E20">
-        <v>47.1416</v>
+        <v>47.141599999999997</v>
       </c>
       <c r="F20">
-        <v>9.5215</v>
+        <v>9.5214999999999996</v>
       </c>
       <c r="G20" t="s">
         <v>111</v>
@@ -1426,7 +1455,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1434,10 +1463,10 @@
         <v>72</v>
       </c>
       <c r="E21">
-        <v>54.6872</v>
+        <v>54.687199999999997</v>
       </c>
       <c r="F21">
-        <v>25.2797</v>
+        <v>25.279699999999998</v>
       </c>
       <c r="G21" t="s">
         <v>112</v>
@@ -1446,7 +1475,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1457,10 +1486,10 @@
         <v>92</v>
       </c>
       <c r="E22">
-        <v>49.6117</v>
+        <v>49.611699999999999</v>
       </c>
       <c r="F22">
-        <v>6.1319</v>
+        <v>6.1318999999999999</v>
       </c>
       <c r="G22" t="s">
         <v>113</v>
@@ -1472,7 +1501,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1480,7 +1509,7 @@
         <v>73</v>
       </c>
       <c r="E23">
-        <v>41.9981</v>
+        <v>41.998100000000001</v>
       </c>
       <c r="F23">
         <v>21.4254</v>
@@ -1492,7 +1521,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1503,7 +1532,7 @@
         <v>92</v>
       </c>
       <c r="E24">
-        <v>35.8997</v>
+        <v>35.899700000000003</v>
       </c>
       <c r="F24">
         <v>14.5146</v>
@@ -1515,7 +1544,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1526,7 +1555,7 @@
         <v>47.0105</v>
       </c>
       <c r="F25">
-        <v>28.8638</v>
+        <v>28.863800000000001</v>
       </c>
       <c r="G25" t="s">
         <v>116</v>
@@ -1535,7 +1564,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1543,10 +1572,10 @@
         <v>34</v>
       </c>
       <c r="E26">
-        <v>43.7384</v>
+        <v>43.738399999999999</v>
       </c>
       <c r="F26">
-        <v>7.4246</v>
+        <v>7.4245999999999999</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -1555,7 +1584,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1566,10 +1595,10 @@
         <v>92</v>
       </c>
       <c r="E27">
-        <v>52.3676</v>
+        <v>52.367600000000003</v>
       </c>
       <c r="F27">
-        <v>4.9041</v>
+        <v>4.9040999999999997</v>
       </c>
       <c r="G27" t="s">
         <v>118</v>
@@ -1581,7 +1610,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1592,7 +1621,7 @@
         <v>92</v>
       </c>
       <c r="E28">
-        <v>59.9139</v>
+        <v>59.913899999999998</v>
       </c>
       <c r="F28">
         <v>10.7522</v>
@@ -1604,7 +1633,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1615,10 +1644,10 @@
         <v>92</v>
       </c>
       <c r="E29">
-        <v>48.2082</v>
+        <v>48.208199999999998</v>
       </c>
       <c r="F29">
-        <v>16.3738</v>
+        <v>16.373799999999999</v>
       </c>
       <c r="G29" t="s">
         <v>120</v>
@@ -1630,7 +1659,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1638,7 +1667,7 @@
         <v>79</v>
       </c>
       <c r="E30">
-        <v>52.2297</v>
+        <v>52.229700000000001</v>
       </c>
       <c r="F30">
         <v>21.0122</v>
@@ -1650,7 +1679,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1661,10 +1690,10 @@
         <v>92</v>
       </c>
       <c r="E31">
-        <v>38.7169</v>
+        <v>38.716900000000003</v>
       </c>
       <c r="F31">
-        <v>-9.138999999999999</v>
+        <v>-9.1389999999999993</v>
       </c>
       <c r="G31" t="s">
         <v>122</v>
@@ -1673,7 +1702,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1687,7 +1716,7 @@
         <v>44.4268</v>
       </c>
       <c r="F32">
-        <v>26.1025</v>
+        <v>26.102499999999999</v>
       </c>
       <c r="G32" t="s">
         <v>123</v>
@@ -1696,7 +1725,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1707,7 +1736,7 @@
         <v>92</v>
       </c>
       <c r="E33">
-        <v>55.7558</v>
+        <v>55.755800000000001</v>
       </c>
       <c r="F33">
         <v>37.6173</v>
@@ -1719,7 +1748,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1727,10 +1756,10 @@
         <v>42</v>
       </c>
       <c r="E34">
-        <v>43.9336</v>
+        <v>43.933599999999998</v>
       </c>
       <c r="F34">
-        <v>12.4508</v>
+        <v>12.450799999999999</v>
       </c>
       <c r="G34" t="s">
         <v>125</v>
@@ -1739,7 +1768,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1747,10 +1776,10 @@
         <v>83</v>
       </c>
       <c r="E35">
-        <v>46.0569</v>
+        <v>46.056899999999999</v>
       </c>
       <c r="F35">
-        <v>14.5058</v>
+        <v>14.505800000000001</v>
       </c>
       <c r="G35" t="s">
         <v>126</v>
@@ -1759,7 +1788,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1770,10 +1799,10 @@
         <v>92</v>
       </c>
       <c r="E36">
-        <v>48.1486</v>
+        <v>48.148600000000002</v>
       </c>
       <c r="F36">
-        <v>17.1077</v>
+        <v>17.107700000000001</v>
       </c>
       <c r="G36" t="s">
         <v>127</v>
@@ -1785,7 +1814,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1796,10 +1825,10 @@
         <v>92</v>
       </c>
       <c r="E37">
-        <v>40.4168</v>
+        <v>40.416800000000002</v>
       </c>
       <c r="F37">
-        <v>-3.7038</v>
+        <v>-3.7038000000000002</v>
       </c>
       <c r="G37" t="s">
         <v>128</v>
@@ -1811,7 +1840,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1822,10 +1851,10 @@
         <v>92</v>
       </c>
       <c r="E38">
-        <v>50.0755</v>
+        <v>50.075499999999998</v>
       </c>
       <c r="F38">
-        <v>14.4378</v>
+        <v>14.437799999999999</v>
       </c>
       <c r="G38" t="s">
         <v>129</v>
@@ -1837,7 +1866,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1848,7 +1877,7 @@
         <v>92</v>
       </c>
       <c r="E39">
-        <v>41.9029</v>
+        <v>41.902900000000002</v>
       </c>
       <c r="F39">
         <v>12.4534</v>
@@ -1863,7 +1892,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1874,10 +1903,10 @@
         <v>92</v>
       </c>
       <c r="E40">
-        <v>51.5072</v>
+        <v>51.507199999999997</v>
       </c>
       <c r="F40">
-        <v>-0.1276</v>
+        <v>-0.12759999999999999</v>
       </c>
       <c r="G40" t="s">
         <v>131</v>
@@ -1889,7 +1918,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1897,10 +1926,10 @@
         <v>88</v>
       </c>
       <c r="E41">
-        <v>53.9006</v>
+        <v>53.900599999999997</v>
       </c>
       <c r="F41">
-        <v>27.559</v>
+        <v>27.559000000000001</v>
       </c>
       <c r="G41" t="s">
         <v>132</v>
@@ -1909,7 +1938,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1917,7 +1946,7 @@
         <v>89</v>
       </c>
       <c r="E42">
-        <v>46.9481</v>
+        <v>46.948099999999997</v>
       </c>
       <c r="F42">
         <v>7.4474</v>
@@ -1929,7 +1958,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1940,7 +1969,7 @@
         <v>92</v>
       </c>
       <c r="E43">
-        <v>59.3293</v>
+        <v>59.329300000000003</v>
       </c>
       <c r="F43">
         <v>18.0686</v>
@@ -1952,7 +1981,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1960,10 +1989,10 @@
         <v>91</v>
       </c>
       <c r="E44">
-        <v>50.4501</v>
+        <v>50.450099999999999</v>
       </c>
       <c r="F44">
-        <v>30.5234</v>
+        <v>30.523399999999999</v>
       </c>
       <c r="G44" t="s">
         <v>135</v>
@@ -1974,49 +2003,49 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H6" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-    <hyperlink ref="H8" r:id="rId7"/>
-    <hyperlink ref="H9" r:id="rId8"/>
-    <hyperlink ref="H10" r:id="rId9"/>
-    <hyperlink ref="H11" r:id="rId10"/>
-    <hyperlink ref="H12" r:id="rId11"/>
-    <hyperlink ref="H13" r:id="rId12"/>
-    <hyperlink ref="H14" r:id="rId13"/>
-    <hyperlink ref="H15" r:id="rId14"/>
-    <hyperlink ref="H16" r:id="rId15"/>
-    <hyperlink ref="H17" r:id="rId16"/>
-    <hyperlink ref="H18" r:id="rId17"/>
-    <hyperlink ref="H19" r:id="rId18"/>
-    <hyperlink ref="H20" r:id="rId19"/>
-    <hyperlink ref="H21" r:id="rId20"/>
-    <hyperlink ref="H22" r:id="rId21"/>
-    <hyperlink ref="H23" r:id="rId22"/>
-    <hyperlink ref="H24" r:id="rId23"/>
-    <hyperlink ref="H25" r:id="rId24"/>
-    <hyperlink ref="H26" r:id="rId25"/>
-    <hyperlink ref="H27" r:id="rId26"/>
-    <hyperlink ref="H28" r:id="rId27"/>
-    <hyperlink ref="H29" r:id="rId28"/>
-    <hyperlink ref="H30" r:id="rId29"/>
-    <hyperlink ref="H31" r:id="rId30"/>
-    <hyperlink ref="H32" r:id="rId31"/>
-    <hyperlink ref="H33" r:id="rId32"/>
-    <hyperlink ref="H34" r:id="rId33"/>
-    <hyperlink ref="H35" r:id="rId34"/>
-    <hyperlink ref="H36" r:id="rId35"/>
-    <hyperlink ref="H37" r:id="rId36"/>
-    <hyperlink ref="H38" r:id="rId37"/>
-    <hyperlink ref="H39" r:id="rId38"/>
-    <hyperlink ref="H40" r:id="rId39"/>
-    <hyperlink ref="H41" r:id="rId40"/>
-    <hyperlink ref="H42" r:id="rId41"/>
-    <hyperlink ref="H43" r:id="rId42"/>
-    <hyperlink ref="H44" r:id="rId43"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
